--- a/PDRMYE/DOCUMENTOS GENERALES/FORMATO DE REGISTRO DE USUARIOS v1.0.2.xlsx
+++ b/PDRMYE/DOCUMENTOS GENERALES/FORMATO DE REGISTRO DE USUARIOS v1.0.2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="SFyTGE" sheetId="1" r:id="rId1"/>
     <sheet name="Municipios" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Organismos" sheetId="4" r:id="rId3"/>
+    <sheet name="Organismos" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="DATOS" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -1198,7 +1198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="200">
   <si>
     <t xml:space="preserve">FORMATO PARA REGISTRO DE USUARIO EN LA PLATAFORMA </t>
   </si>
@@ -1395,12 +1395,6 @@
     </r>
   </si>
   <si>
-    <t>RFC</t>
-  </si>
-  <si>
-    <t>CURP</t>
-  </si>
-  <si>
     <t>CELULAR</t>
   </si>
   <si>
@@ -2233,18 +2227,6 @@
     <t>Dr. Antonio J. Dieck Assad</t>
   </si>
   <si>
-    <t>Juan Fernando</t>
-  </si>
-  <si>
-    <t>Chávez</t>
-  </si>
-  <si>
-    <t>Marroquín</t>
-  </si>
-  <si>
-    <t>juan.chavez@nuevoleon.gob.mx</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2278,6 +2260,42 @@
       </rPr>
       <t>LA INFORMACIÓN PROPORCIONADA ES PARA GENERAR EL USUARIO CORRESPONDIENTE EN LA PLATAFORMA DE DISTRIBUCIÓN DE RECURSOS A MUNICIPIOS Y ORGANISMOS PARAESTATALES DE LA SFyTGE</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CURP</t>
+    </r>
+  </si>
+  <si>
+    <t>Jose Luis</t>
+  </si>
+  <si>
+    <t>Cantú</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t>joseluis.cantu@nuevoleon.gob.mx</t>
   </si>
 </sst>
 </file>
@@ -2764,7 +2782,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,7 +2850,7 @@
     </row>
     <row r="4" spans="1:14" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2861,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>23</v>
@@ -2873,13 +2891,13 @@
         <v>2</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>24</v>
@@ -2906,7 +2924,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="G6" t="s">
         <v>199</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -2917,10 +2935,10 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="4"/>
@@ -3020,7 +3038,7 @@
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3054,37 +3072,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="D5" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>92</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>23</v>
@@ -3095,38 +3113,38 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="16">
         <v>8182206100</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="H6" s="16">
         <v>1145</v>
       </c>
       <c r="I6" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>97</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>99</v>
       </c>
       <c r="M6" s="4"/>
     </row>
@@ -4232,7 +4250,7 @@
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -4266,37 +4284,37 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>91</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>23</v>
@@ -4307,20 +4325,20 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="16">
         <v>8181445200</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
@@ -4390,13 +4408,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -4407,10 +4425,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -4421,10 +4439,10 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -4435,10 +4453,10 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -4449,24 +4467,24 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -4474,10 +4492,10 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -4485,10 +4503,10 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -4496,522 +4514,522 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I38" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I41" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I42" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I43" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I55" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I56" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I58" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I63" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I64" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
